--- a/sample_results/Correlation_Matrix.xlsx
+++ b/sample_results/Correlation_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\LopezMOSS\sample_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F96A20-F44D-4477-861B-CDAEF22180F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B1B37-0D88-4656-BABE-A1933CB40705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB5E925E-AFF4-4D86-8451-B22628164210}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="37">
   <si>
     <t>Similarity_Checker_Contreras</t>
   </si>
@@ -139,6 +139,12 @@
   <si>
     <t>Module 0 SABULARSE</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Submissions</t>
+  </si>
 </sst>
 </file>
 
@@ -179,28 +185,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6B934-9A3A-48D2-96DA-946ADAC66595}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:BU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4042,7 +4027,7 @@
         <v>0.27489999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4152,7 +4137,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4262,7 +4247,7 @@
         <v>0.34079999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4372,7 +4357,7 @@
         <v>0.3085</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4482,7 +4467,7967 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:73" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D39">
+        <v>0.2414</v>
+      </c>
+      <c r="E39">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="F39">
+        <v>0.2596</v>
+      </c>
+      <c r="G39">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="I39">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J39">
+        <v>0.2414</v>
+      </c>
+      <c r="K39">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.2959</v>
+      </c>
+      <c r="M39">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="N39">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="O39">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="P39">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.2913</v>
+      </c>
+      <c r="R39">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="S39">
+        <v>0.3085</v>
+      </c>
+      <c r="T39">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="U39">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="V39">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="W39">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="X39">
+        <v>0.2414</v>
+      </c>
+      <c r="Y39">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="Z39">
+        <v>0.2414</v>
+      </c>
+      <c r="AA39">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AB39">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="AC39">
+        <v>0.2581</v>
+      </c>
+      <c r="AD39">
+        <v>0.2414</v>
+      </c>
+      <c r="AE39">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="AF39">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="AG39">
+        <v>0.2414</v>
+      </c>
+      <c r="AH39">
+        <v>0.2414</v>
+      </c>
+      <c r="AI39">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="AJ39">
+        <v>0.2414</v>
+      </c>
+      <c r="AK39">
+        <v>0.2843</v>
+      </c>
+      <c r="AL39">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM39">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AN39">
+        <v>0.2414</v>
+      </c>
+      <c r="AO39">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="AP39">
+        <v>0.2596</v>
+      </c>
+      <c r="AQ39">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="AR39">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="AS39">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AT39">
+        <v>0.2414</v>
+      </c>
+      <c r="AU39">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AV39">
+        <v>0.2959</v>
+      </c>
+      <c r="AW39">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="AX39">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="AY39">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="AZ39">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="BA39">
+        <v>0.2913</v>
+      </c>
+      <c r="BB39">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="BC39">
+        <v>0.3085</v>
+      </c>
+      <c r="BD39">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="BE39">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="BF39">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="BG39">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="BH39">
+        <v>0.2414</v>
+      </c>
+      <c r="BI39">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="BJ39">
+        <v>0.2414</v>
+      </c>
+      <c r="BK39">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="BL39">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="BM39">
+        <v>0.2581</v>
+      </c>
+      <c r="BN39">
+        <v>0.2414</v>
+      </c>
+      <c r="BO39">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="BP39">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="BQ39">
+        <v>0.2414</v>
+      </c>
+      <c r="BR39">
+        <v>0.2414</v>
+      </c>
+      <c r="BS39">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="BT39">
+        <v>0.2414</v>
+      </c>
+      <c r="BU39">
+        <v>0.2843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F40">
+        <v>0.2397</v>
+      </c>
+      <c r="G40">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.3397</v>
+      </c>
+      <c r="I40">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="J40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.2339</v>
+      </c>
+      <c r="N40">
+        <v>0.377</v>
+      </c>
+      <c r="O40">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="R40">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="S40">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="T40">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="U40">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="V40">
+        <v>0.2878</v>
+      </c>
+      <c r="W40">
+        <v>0.4355</v>
+      </c>
+      <c r="X40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="Y40">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="Z40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AA40">
+        <v>0.3352</v>
+      </c>
+      <c r="AB40">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="AC40">
+        <v>0.2621</v>
+      </c>
+      <c r="AD40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AE40">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="AF40">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="AG40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AH40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AI40">
+        <v>0.2767</v>
+      </c>
+      <c r="AJ40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AK40">
+        <v>0.3261</v>
+      </c>
+      <c r="AL40">
+        <v>0.2843</v>
+      </c>
+      <c r="AM40">
+        <v>0.3261</v>
+      </c>
+      <c r="AN40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AO40">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AP40">
+        <v>0.2397</v>
+      </c>
+      <c r="AQ40">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="AR40">
+        <v>0.3397</v>
+      </c>
+      <c r="AS40">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="AT40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AU40">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AV40">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="AW40">
+        <v>0.2339</v>
+      </c>
+      <c r="AX40">
+        <v>0.377</v>
+      </c>
+      <c r="AY40">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="AZ40">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="BA40">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="BB40">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="BC40">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="BD40">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="BE40">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="BF40">
+        <v>0.2878</v>
+      </c>
+      <c r="BG40">
+        <v>0.4355</v>
+      </c>
+      <c r="BH40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BI40">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="BJ40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BK40">
+        <v>0.3352</v>
+      </c>
+      <c r="BL40">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="BM40">
+        <v>0.2621</v>
+      </c>
+      <c r="BN40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BO40">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="BP40">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="BQ40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BR40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BS40">
+        <v>0.2767</v>
+      </c>
+      <c r="BT40">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="BU40">
+        <v>0.3261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>0.2414</v>
+      </c>
+      <c r="C41">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.2772</v>
+      </c>
+      <c r="I41">
+        <v>0.25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M41">
+        <v>0.2056</v>
+      </c>
+      <c r="N41">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O41">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P41">
+        <v>0.2437</v>
+      </c>
+      <c r="Q41">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R41">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S41">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T41">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U41">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V41">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W41">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA41">
+        <v>0.2326</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE41">
+        <v>0.1216</v>
+      </c>
+      <c r="AF41">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI41">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK41">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL41">
+        <v>0.3261</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN41">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AO41">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AP41">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AQ41">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AR41">
+        <v>0.2772</v>
+      </c>
+      <c r="AS41">
+        <v>0.25</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU41">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AV41">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AW41">
+        <v>0.2056</v>
+      </c>
+      <c r="AX41">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AY41">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AZ41">
+        <v>0.2437</v>
+      </c>
+      <c r="BA41">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BB41">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BC41">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BD41">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BE41">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BF41">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BG41">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI41">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK41">
+        <v>0.2326</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO41">
+        <v>0.1216</v>
+      </c>
+      <c r="BP41">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS41">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU41">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.2586</v>
+      </c>
+      <c r="H42">
+        <v>0.2737</v>
+      </c>
+      <c r="I42">
+        <v>0.3145</v>
+      </c>
+      <c r="J42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="K42">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="L42">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="N42">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="O42">
+        <v>0.26</v>
+      </c>
+      <c r="P42">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="Q42">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.3397</v>
+      </c>
+      <c r="S42">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="T42">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="U42">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="V42">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="W42">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="X42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="Z42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="AB42">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="AC42">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AD42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AE42">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="AF42">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="AG42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AH42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AI42">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AJ42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AK42">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="AL42">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM42">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AN42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AO42">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="AP42">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="AQ42">
+        <v>0.2586</v>
+      </c>
+      <c r="AR42">
+        <v>0.2737</v>
+      </c>
+      <c r="AS42">
+        <v>0.3145</v>
+      </c>
+      <c r="AT42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AU42">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="AV42">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="AW42">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AX42">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="AY42">
+        <v>0.26</v>
+      </c>
+      <c r="AZ42">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="BA42">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="BB42">
+        <v>0.3397</v>
+      </c>
+      <c r="BC42">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="BD42">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="BE42">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="BF42">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="BG42">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="BH42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BI42">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="BJ42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BK42">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="BL42">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="BM42">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="BN42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BO42">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="BP42">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="BQ42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BR42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BS42">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="BT42">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="BU42">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>0.2596</v>
+      </c>
+      <c r="C43">
+        <v>0.2397</v>
+      </c>
+      <c r="D43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="M43">
+        <v>0.2485</v>
+      </c>
+      <c r="N43">
+        <v>0.2974</v>
+      </c>
+      <c r="O43">
+        <v>0.2273</v>
+      </c>
+      <c r="P43">
+        <v>0.2331</v>
+      </c>
+      <c r="Q43">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="R43">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="S43">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="T43">
+        <v>0.1951</v>
+      </c>
+      <c r="U43">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="V43">
+        <v>0.2465</v>
+      </c>
+      <c r="W43">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="X43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0.2336</v>
+      </c>
+      <c r="Z43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="AB43">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="AC43">
+        <v>0.1651</v>
+      </c>
+      <c r="AD43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AE43">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="AF43">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AG43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AH43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AI43">
+        <v>0.2036</v>
+      </c>
+      <c r="AJ43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AK43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL43">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="AM43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AN43">
+        <v>0.2036</v>
+      </c>
+      <c r="AO43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AP43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ43">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="AR43">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="AS43">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="AT43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AU43">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="AV43">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="AW43">
+        <v>0.2485</v>
+      </c>
+      <c r="AX43">
+        <v>0.2974</v>
+      </c>
+      <c r="AY43">
+        <v>0.2273</v>
+      </c>
+      <c r="AZ43">
+        <v>0.2331</v>
+      </c>
+      <c r="BA43">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="BB43">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="BC43">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="BD43">
+        <v>0.1951</v>
+      </c>
+      <c r="BE43">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="BF43">
+        <v>0.2465</v>
+      </c>
+      <c r="BG43">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="BH43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BI43">
+        <v>0.2336</v>
+      </c>
+      <c r="BJ43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BK43">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="BL43">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="BM43">
+        <v>0.1651</v>
+      </c>
+      <c r="BN43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BO43">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="BP43">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="BQ43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BR43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BS43">
+        <v>0.2036</v>
+      </c>
+      <c r="BT43">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="BU43">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.2586</v>
+      </c>
+      <c r="F44">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.2717</v>
+      </c>
+      <c r="J44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.2606</v>
+      </c>
+      <c r="M44">
+        <v>0.2349</v>
+      </c>
+      <c r="N44">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.2253</v>
+      </c>
+      <c r="Q44">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="R44">
+        <v>0.25</v>
+      </c>
+      <c r="S44">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="T44">
+        <v>0.2046</v>
+      </c>
+      <c r="U44">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="V44">
+        <v>0.2384</v>
+      </c>
+      <c r="W44">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="X44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0.2409</v>
+      </c>
+      <c r="Z44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="AB44">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="AC44">
+        <v>0.2346</v>
+      </c>
+      <c r="AD44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="AF44">
+        <v>0.2341</v>
+      </c>
+      <c r="AG44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AH44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AI44">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AJ44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AK44">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="AL44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AN44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AO44">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AP44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AQ44">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="AR44">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="AS44">
+        <v>0.2717</v>
+      </c>
+      <c r="AT44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AU44">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="AV44">
+        <v>0.2606</v>
+      </c>
+      <c r="AW44">
+        <v>0.2349</v>
+      </c>
+      <c r="AX44">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="AY44">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="AZ44">
+        <v>0.2253</v>
+      </c>
+      <c r="BA44">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="BB44">
+        <v>0.25</v>
+      </c>
+      <c r="BC44">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="BD44">
+        <v>0.2046</v>
+      </c>
+      <c r="BE44">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>0.2384</v>
+      </c>
+      <c r="BG44">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="BH44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BI44">
+        <v>0.2409</v>
+      </c>
+      <c r="BJ44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BK44">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="BL44">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="BM44">
+        <v>0.2346</v>
+      </c>
+      <c r="BN44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BO44">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="BP44">
+        <v>0.2341</v>
+      </c>
+      <c r="BQ44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BR44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BS44">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="BT44">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="BU44">
+        <v>0.25519999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.3397</v>
+      </c>
+      <c r="D45">
+        <v>0.2772</v>
+      </c>
+      <c r="E45">
+        <v>0.2737</v>
+      </c>
+      <c r="F45">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.2772</v>
+      </c>
+      <c r="K45">
+        <v>0.2651</v>
+      </c>
+      <c r="L45">
+        <v>0.3478</v>
+      </c>
+      <c r="M45">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N45">
+        <v>0.3286</v>
+      </c>
+      <c r="O45">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="P45">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="Q45">
+        <v>0.3206</v>
+      </c>
+      <c r="R45">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="S45">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="T45">
+        <v>0.2087</v>
+      </c>
+      <c r="U45">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="V45">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="X45">
+        <v>0.2772</v>
+      </c>
+      <c r="Y45">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>0.2772</v>
+      </c>
+      <c r="AA45">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="AB45">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AC45">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="AD45">
+        <v>0.2772</v>
+      </c>
+      <c r="AE45">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="AF45">
+        <v>0.3039</v>
+      </c>
+      <c r="AG45">
+        <v>0.2772</v>
+      </c>
+      <c r="AH45">
+        <v>0.2772</v>
+      </c>
+      <c r="AI45">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="AJ45">
+        <v>0.2772</v>
+      </c>
+      <c r="AK45">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AL45">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="AM45">
+        <v>0.3039</v>
+      </c>
+      <c r="AN45">
+        <v>0.2772</v>
+      </c>
+      <c r="AO45">
+        <v>0.2772</v>
+      </c>
+      <c r="AP45">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="AQ45">
+        <v>0.2772</v>
+      </c>
+      <c r="AR45">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AS45">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="AT45">
+        <v>0.2772</v>
+      </c>
+      <c r="AU45">
+        <v>0.2651</v>
+      </c>
+      <c r="AV45">
+        <v>0.3478</v>
+      </c>
+      <c r="AW45">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AX45">
+        <v>0.3286</v>
+      </c>
+      <c r="AY45">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="AZ45">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="BA45">
+        <v>0.3206</v>
+      </c>
+      <c r="BB45">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="BC45">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="BD45">
+        <v>0.2087</v>
+      </c>
+      <c r="BE45">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="BF45">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="BG45">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BH45">
+        <v>0.2772</v>
+      </c>
+      <c r="BI45">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="BJ45">
+        <v>0.2772</v>
+      </c>
+      <c r="BK45">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="BL45">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="BM45">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="BN45">
+        <v>0.2772</v>
+      </c>
+      <c r="BO45">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="BP45">
+        <v>0.3039</v>
+      </c>
+      <c r="BQ45">
+        <v>0.2772</v>
+      </c>
+      <c r="BR45">
+        <v>0.2772</v>
+      </c>
+      <c r="BS45">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="BT45">
+        <v>0.2772</v>
+      </c>
+      <c r="BU45">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.25</v>
+      </c>
+      <c r="E46">
+        <v>0.3145</v>
+      </c>
+      <c r="F46">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.2717</v>
+      </c>
+      <c r="H46">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="M46">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="P46">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="Q46">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="R46">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="S46">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="T46">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="U46">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="V46">
+        <v>0.3609</v>
+      </c>
+      <c r="W46">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="X46">
+        <v>0.25</v>
+      </c>
+      <c r="Y46">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>0.25</v>
+      </c>
+      <c r="AA46">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="AB46">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AC46">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>0.25</v>
+      </c>
+      <c r="AE46">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AF46">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AG46">
+        <v>0.25</v>
+      </c>
+      <c r="AH46">
+        <v>0.25</v>
+      </c>
+      <c r="AI46">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="AJ46">
+        <v>0.25</v>
+      </c>
+      <c r="AK46">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AL46">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AM46">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AN46">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AO46">
+        <v>0.25</v>
+      </c>
+      <c r="AP46">
+        <v>0.25</v>
+      </c>
+      <c r="AQ46">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="AR46">
+        <v>0.25</v>
+      </c>
+      <c r="AS46">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AT46">
+        <v>0.25</v>
+      </c>
+      <c r="AU46">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="AV46">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="AW46">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="AX46">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="AY46">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="AZ46">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="BA46">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="BB46">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="BC46">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="BD46">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="BE46">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="BF46">
+        <v>0.3609</v>
+      </c>
+      <c r="BG46">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="BH46">
+        <v>0.25</v>
+      </c>
+      <c r="BI46">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="BJ46">
+        <v>0.25</v>
+      </c>
+      <c r="BK46">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="BL46">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="BM46">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="BN46">
+        <v>0.25</v>
+      </c>
+      <c r="BO46">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="BP46">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="BQ46">
+        <v>0.25</v>
+      </c>
+      <c r="BR46">
+        <v>0.25</v>
+      </c>
+      <c r="BS46">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="BT46">
+        <v>0.25</v>
+      </c>
+      <c r="BU46">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>0.2414</v>
+      </c>
+      <c r="C47">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H47">
+        <v>0.2772</v>
+      </c>
+      <c r="I47">
+        <v>0.25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M47">
+        <v>0.2056</v>
+      </c>
+      <c r="N47">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O47">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P47">
+        <v>0.2437</v>
+      </c>
+      <c r="Q47">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R47">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S47">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T47">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U47">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V47">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W47">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y47">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47">
+        <v>0.2326</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE47">
+        <v>0.1216</v>
+      </c>
+      <c r="AF47">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI47">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK47">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL47">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN47">
+        <v>0.1216</v>
+      </c>
+      <c r="AO47">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR47">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT47">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AU47">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AV47">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AW47">
+        <v>0.2056</v>
+      </c>
+      <c r="AX47">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AY47">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AZ47">
+        <v>0.2437</v>
+      </c>
+      <c r="BA47">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BB47">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BC47">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BD47">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BE47">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BF47">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BG47">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI47">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK47">
+        <v>0.2326</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO47">
+        <v>0.1216</v>
+      </c>
+      <c r="BP47">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS47">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU47">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="H48">
+        <v>0.2651</v>
+      </c>
+      <c r="I48">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="J48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.221</v>
+      </c>
+      <c r="N48">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="O48">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>0.2843</v>
+      </c>
+      <c r="R48">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="S48">
+        <v>0.309</v>
+      </c>
+      <c r="T48">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="U48">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="V48">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="W48">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="X48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0.2349</v>
+      </c>
+      <c r="Z48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>0.2742</v>
+      </c>
+      <c r="AB48">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="AC48">
+        <v>0.25</v>
+      </c>
+      <c r="AD48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AE48">
+        <v>0.2394</v>
+      </c>
+      <c r="AF48">
+        <v>0.24</v>
+      </c>
+      <c r="AG48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AH48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AI48">
+        <v>0.2727</v>
+      </c>
+      <c r="AJ48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AK48">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="AL48">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM48">
+        <v>0.25</v>
+      </c>
+      <c r="AN48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AO48">
+        <v>0.2394</v>
+      </c>
+      <c r="AP48">
+        <v>0.24</v>
+      </c>
+      <c r="AQ48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AR48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AS48">
+        <v>0.2727</v>
+      </c>
+      <c r="AT48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AU48">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="AV48">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="AW48">
+        <v>0.221</v>
+      </c>
+      <c r="AX48">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="AY48">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="AZ48">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="BA48">
+        <v>0.2843</v>
+      </c>
+      <c r="BB48">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="BC48">
+        <v>0.309</v>
+      </c>
+      <c r="BD48">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="BE48">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="BF48">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="BG48">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="BH48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BI48">
+        <v>0.2349</v>
+      </c>
+      <c r="BJ48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BK48">
+        <v>0.2742</v>
+      </c>
+      <c r="BL48">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="BM48">
+        <v>0.25</v>
+      </c>
+      <c r="BN48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BO48">
+        <v>0.2394</v>
+      </c>
+      <c r="BP48">
+        <v>0.24</v>
+      </c>
+      <c r="BQ48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BR48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BS48">
+        <v>0.2727</v>
+      </c>
+      <c r="BT48">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="BU48">
+        <v>0.26490000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>0.2959</v>
+      </c>
+      <c r="C49">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="E49">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="G49">
+        <v>0.2606</v>
+      </c>
+      <c r="H49">
+        <v>0.3478</v>
+      </c>
+      <c r="I49">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="J49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="K49">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N49">
+        <v>0.434</v>
+      </c>
+      <c r="O49">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="P49">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>0.3785</v>
+      </c>
+      <c r="R49">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="S49">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="T49">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="U49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="V49">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="W49">
+        <v>0.4128</v>
+      </c>
+      <c r="X49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>0.3614</v>
+      </c>
+      <c r="AB49">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AC49">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AD49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AE49">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="AF49">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="AG49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AH49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AI49">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="AJ49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AK49">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AL49">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="AM49">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AN49">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AO49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AP49">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="AQ49">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="AR49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AS49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AT49">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="AU49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AV49">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AW49">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AX49">
+        <v>0.434</v>
+      </c>
+      <c r="AY49">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="AZ49">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="BA49">
+        <v>0.3785</v>
+      </c>
+      <c r="BB49">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="BC49">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="BD49">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="BE49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BF49">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="BG49">
+        <v>0.4128</v>
+      </c>
+      <c r="BH49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BI49">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="BJ49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BK49">
+        <v>0.3614</v>
+      </c>
+      <c r="BL49">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="BM49">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="BN49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BO49">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="BP49">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="BQ49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BR49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BS49">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="BT49">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="BU49">
+        <v>0.34320000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="C50">
+        <v>0.2339</v>
+      </c>
+      <c r="D50">
+        <v>0.2056</v>
+      </c>
+      <c r="E50">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.2485</v>
+      </c>
+      <c r="G50">
+        <v>0.2349</v>
+      </c>
+      <c r="H50">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I50">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0.2056</v>
+      </c>
+      <c r="K50">
+        <v>0.221</v>
+      </c>
+      <c r="L50">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.216</v>
+      </c>
+      <c r="P50">
+        <v>0.2369</v>
+      </c>
+      <c r="Q50">
+        <v>0.2752</v>
+      </c>
+      <c r="R50">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="S50">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="T50">
+        <v>0.2281</v>
+      </c>
+      <c r="U50">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="V50">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="W50">
+        <v>0.3453</v>
+      </c>
+      <c r="X50">
+        <v>0.2056</v>
+      </c>
+      <c r="Y50">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="Z50">
+        <v>0.2056</v>
+      </c>
+      <c r="AA50">
+        <v>0.2535</v>
+      </c>
+      <c r="AB50">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="AC50">
+        <v>0.1898</v>
+      </c>
+      <c r="AD50">
+        <v>0.2056</v>
+      </c>
+      <c r="AE50">
+        <v>0.1976</v>
+      </c>
+      <c r="AF50">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="AG50">
+        <v>0.2056</v>
+      </c>
+      <c r="AH50">
+        <v>0.2056</v>
+      </c>
+      <c r="AI50">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="AJ50">
+        <v>0.2056</v>
+      </c>
+      <c r="AK50">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AL50">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AM50">
+        <v>0.2535</v>
+      </c>
+      <c r="AN50">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="AO50">
+        <v>0.1898</v>
+      </c>
+      <c r="AP50">
+        <v>0.2056</v>
+      </c>
+      <c r="AQ50">
+        <v>0.1976</v>
+      </c>
+      <c r="AR50">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="AS50">
+        <v>0.2056</v>
+      </c>
+      <c r="AT50">
+        <v>0.2056</v>
+      </c>
+      <c r="AU50">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="AV50">
+        <v>0.2056</v>
+      </c>
+      <c r="AW50">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AX50">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="AY50">
+        <v>0.216</v>
+      </c>
+      <c r="AZ50">
+        <v>0.2369</v>
+      </c>
+      <c r="BA50">
+        <v>0.2752</v>
+      </c>
+      <c r="BB50">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="BC50">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="BD50">
+        <v>0.2281</v>
+      </c>
+      <c r="BE50">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="BF50">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="BG50">
+        <v>0.3453</v>
+      </c>
+      <c r="BH50">
+        <v>0.2056</v>
+      </c>
+      <c r="BI50">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BJ50">
+        <v>0.2056</v>
+      </c>
+      <c r="BK50">
+        <v>0.2535</v>
+      </c>
+      <c r="BL50">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="BM50">
+        <v>0.1898</v>
+      </c>
+      <c r="BN50">
+        <v>0.2056</v>
+      </c>
+      <c r="BO50">
+        <v>0.1976</v>
+      </c>
+      <c r="BP50">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="BQ50">
+        <v>0.2056</v>
+      </c>
+      <c r="BR50">
+        <v>0.2056</v>
+      </c>
+      <c r="BS50">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="BT50">
+        <v>0.2056</v>
+      </c>
+      <c r="BU50">
+        <v>0.27679999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.377</v>
+      </c>
+      <c r="D51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="F51">
+        <v>0.2974</v>
+      </c>
+      <c r="G51">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.3286</v>
+      </c>
+      <c r="I51">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="J51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="L51">
+        <v>0.434</v>
+      </c>
+      <c r="M51">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="P51">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="R51">
+        <v>0.3553</v>
+      </c>
+      <c r="S51">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="T51">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="U51">
+        <v>0.4254</v>
+      </c>
+      <c r="V51">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="W51">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="X51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="Z51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AA51">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AC51">
+        <v>0.3624</v>
+      </c>
+      <c r="AD51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AE51">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="AF51">
+        <v>0.3211</v>
+      </c>
+      <c r="AG51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AH51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AI51">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AJ51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AK51">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AL51">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AM51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AN51">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="AO51">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AP51">
+        <v>0.3624</v>
+      </c>
+      <c r="AQ51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AR51">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="AS51">
+        <v>0.3211</v>
+      </c>
+      <c r="AT51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AU51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AV51">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AW51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AX51">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AY51">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="AZ51">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="BA51">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="BB51">
+        <v>0.3553</v>
+      </c>
+      <c r="BC51">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="BD51">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="BE51">
+        <v>0.4254</v>
+      </c>
+      <c r="BF51">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="BG51">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="BH51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BI51">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="BJ51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BK51">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="BL51">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="BM51">
+        <v>0.3624</v>
+      </c>
+      <c r="BN51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BO51">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="BP51">
+        <v>0.3211</v>
+      </c>
+      <c r="BQ51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BR51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BS51">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="BT51">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="BU51">
+        <v>0.34360000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.26</v>
+      </c>
+      <c r="F52">
+        <v>0.2273</v>
+      </c>
+      <c r="G52">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="J52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.216</v>
+      </c>
+      <c r="N52">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="R52">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="S52">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="T52">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="U52">
+        <v>0.2326</v>
+      </c>
+      <c r="V52">
+        <v>0.3468</v>
+      </c>
+      <c r="W52">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="X52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0.2273</v>
+      </c>
+      <c r="Z52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="AB52">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="AC52">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AD52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AE52">
+        <v>0.25</v>
+      </c>
+      <c r="AF52">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="AG52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AH52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AI52">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="AJ52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AK52">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="AL52">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AM52">
+        <v>0.2273</v>
+      </c>
+      <c r="AN52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AO52">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="AP52">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="AQ52">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AR52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AS52">
+        <v>0.25</v>
+      </c>
+      <c r="AT52">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="AU52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AV52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AW52">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="AX52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AY52">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="AZ52">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BA52">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="BB52">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="BC52">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="BD52">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="BE52">
+        <v>0.2326</v>
+      </c>
+      <c r="BF52">
+        <v>0.3468</v>
+      </c>
+      <c r="BG52">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="BH52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BI52">
+        <v>0.2273</v>
+      </c>
+      <c r="BJ52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BK52">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="BL52">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="BM52">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="BN52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BO52">
+        <v>0.25</v>
+      </c>
+      <c r="BP52">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="BQ52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BR52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BS52">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="BT52">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="BU52">
+        <v>0.37119999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.2437</v>
+      </c>
+      <c r="E53">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="F53">
+        <v>0.2331</v>
+      </c>
+      <c r="G53">
+        <v>0.2253</v>
+      </c>
+      <c r="H53">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="I53">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="J53">
+        <v>0.2437</v>
+      </c>
+      <c r="K53">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="M53">
+        <v>0.2369</v>
+      </c>
+      <c r="N53">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="R53">
+        <v>0.27</v>
+      </c>
+      <c r="S53">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="T53">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="U53">
+        <v>0.2351</v>
+      </c>
+      <c r="V53">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="W53">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="X53">
+        <v>0.2437</v>
+      </c>
+      <c r="Y53">
+        <v>0.2432</v>
+      </c>
+      <c r="Z53">
+        <v>0.2437</v>
+      </c>
+      <c r="AA53">
+        <v>0.2424</v>
+      </c>
+      <c r="AB53">
+        <v>0.2311</v>
+      </c>
+      <c r="AC53">
+        <v>0.251</v>
+      </c>
+      <c r="AD53">
+        <v>0.2437</v>
+      </c>
+      <c r="AE53">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="AF53">
+        <v>0.2555</v>
+      </c>
+      <c r="AG53">
+        <v>0.2437</v>
+      </c>
+      <c r="AH53">
+        <v>0.2437</v>
+      </c>
+      <c r="AI53">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="AJ53">
+        <v>0.2437</v>
+      </c>
+      <c r="AK53">
+        <v>0.2475</v>
+      </c>
+      <c r="AL53">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="AM53">
+        <v>0.2437</v>
+      </c>
+      <c r="AN53">
+        <v>0.2432</v>
+      </c>
+      <c r="AO53">
+        <v>0.2437</v>
+      </c>
+      <c r="AP53">
+        <v>0.2424</v>
+      </c>
+      <c r="AQ53">
+        <v>0.2311</v>
+      </c>
+      <c r="AR53">
+        <v>0.251</v>
+      </c>
+      <c r="AS53">
+        <v>0.2437</v>
+      </c>
+      <c r="AT53">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="AU53">
+        <v>0.2555</v>
+      </c>
+      <c r="AV53">
+        <v>0.2437</v>
+      </c>
+      <c r="AW53">
+        <v>0.2437</v>
+      </c>
+      <c r="AX53">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="AY53">
+        <v>0.2437</v>
+      </c>
+      <c r="AZ53">
+        <v>0.2475</v>
+      </c>
+      <c r="BA53">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="BB53">
+        <v>0.27</v>
+      </c>
+      <c r="BC53">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="BD53">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="BE53">
+        <v>0.2351</v>
+      </c>
+      <c r="BF53">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="BG53">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="BH53">
+        <v>0.2437</v>
+      </c>
+      <c r="BI53">
+        <v>0.2432</v>
+      </c>
+      <c r="BJ53">
+        <v>0.2437</v>
+      </c>
+      <c r="BK53">
+        <v>0.2424</v>
+      </c>
+      <c r="BL53">
+        <v>0.2311</v>
+      </c>
+      <c r="BM53">
+        <v>0.251</v>
+      </c>
+      <c r="BN53">
+        <v>0.2437</v>
+      </c>
+      <c r="BO53">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="BP53">
+        <v>0.2555</v>
+      </c>
+      <c r="BQ53">
+        <v>0.2437</v>
+      </c>
+      <c r="BR53">
+        <v>0.2437</v>
+      </c>
+      <c r="BS53">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="BT53">
+        <v>0.2437</v>
+      </c>
+      <c r="BU53">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>0.2913</v>
+      </c>
+      <c r="C54">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="D54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="E54">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="H54">
+        <v>0.3206</v>
+      </c>
+      <c r="I54">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="K54">
+        <v>0.2843</v>
+      </c>
+      <c r="L54">
+        <v>0.3785</v>
+      </c>
+      <c r="M54">
+        <v>0.2752</v>
+      </c>
+      <c r="N54">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="O54">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="P54">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="S54">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="T54">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="U54">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="V54">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="W54">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="X54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0.2903</v>
+      </c>
+      <c r="Z54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AB54">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="AC54">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="AD54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AE54">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AF54">
+        <v>0.3</v>
+      </c>
+      <c r="AG54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AH54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AI54">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="AJ54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AK54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AL54">
+        <v>0.2475</v>
+      </c>
+      <c r="AM54">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="AN54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AO54">
+        <v>0.2903</v>
+      </c>
+      <c r="AP54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AQ54">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AR54">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="AS54">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="AT54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AU54">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AV54">
+        <v>0.3</v>
+      </c>
+      <c r="AW54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AX54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AY54">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="AZ54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BA54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BB54">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="BC54">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="BD54">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="BE54">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="BF54">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="BG54">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="BH54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BI54">
+        <v>0.2903</v>
+      </c>
+      <c r="BJ54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BK54">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="BL54">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="BM54">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="BN54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BO54">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BP54">
+        <v>0.3</v>
+      </c>
+      <c r="BQ54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BR54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BS54">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="BT54">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BU54">
+        <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="C55">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.3397</v>
+      </c>
+      <c r="F55">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="G55">
+        <v>0.25</v>
+      </c>
+      <c r="H55">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="J55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M55">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="N55">
+        <v>0.3553</v>
+      </c>
+      <c r="O55">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="P55">
+        <v>0.27</v>
+      </c>
+      <c r="Q55">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="T55">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.3226</v>
+      </c>
+      <c r="V55">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="X55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="Z55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="AB55">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="AC55">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="AD55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AE55">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="AG55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AH55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AI55">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="AJ55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AK55">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="AL55">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AM55">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="AN55">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="AO55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AP55">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="AQ55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AR55">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="AS55">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="AT55">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="AU55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AV55">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="AW55">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="AX55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AY55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AZ55">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="BA55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BB55">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="BC55">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="BD55">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="BE55">
+        <v>0.3226</v>
+      </c>
+      <c r="BF55">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="BG55">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="BH55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BI55">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="BJ55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BK55">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="BL55">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="BM55">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="BN55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BO55">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="BP55">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="BQ55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BR55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BS55">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="BT55">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BU55">
+        <v>0.29870000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>0.3085</v>
+      </c>
+      <c r="C56">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="D56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="F56">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="G56">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.309</v>
+      </c>
+      <c r="L56">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="N56">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="O56">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="P56">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="Q56">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="R56">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="U56">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="V56">
+        <v>0.371</v>
+      </c>
+      <c r="W56">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="X56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="Z56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>0.3271</v>
+      </c>
+      <c r="AB56">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="AC56">
+        <v>0.3246</v>
+      </c>
+      <c r="AD56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AE56">
+        <v>0.3256</v>
+      </c>
+      <c r="AF56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AG56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AH56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AI56">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="AJ56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AK56">
+        <v>0.3276</v>
+      </c>
+      <c r="AL56">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="AM56">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="AN56">
+        <v>0.371</v>
+      </c>
+      <c r="AO56">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="AP56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AQ56">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="AR56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AS56">
+        <v>0.3271</v>
+      </c>
+      <c r="AT56">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="AU56">
+        <v>0.3246</v>
+      </c>
+      <c r="AV56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AW56">
+        <v>0.3256</v>
+      </c>
+      <c r="AX56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AY56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AZ56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BA56">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="BB56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BC56">
+        <v>0.3276</v>
+      </c>
+      <c r="BD56">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="BE56">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="BF56">
+        <v>0.371</v>
+      </c>
+      <c r="BG56">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="BH56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BI56">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="BJ56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BK56">
+        <v>0.3271</v>
+      </c>
+      <c r="BL56">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="BM56">
+        <v>0.3246</v>
+      </c>
+      <c r="BN56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BO56">
+        <v>0.3256</v>
+      </c>
+      <c r="BP56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="BQ56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BR56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BS56">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="BT56">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BU56">
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.1951</v>
+      </c>
+      <c r="G57">
+        <v>0.2046</v>
+      </c>
+      <c r="H57">
+        <v>0.2087</v>
+      </c>
+      <c r="I57">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="K57">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.2281</v>
+      </c>
+      <c r="N57">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="O57">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="P57">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="R57">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="S57">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="V57">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="W57">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="X57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>0.216</v>
+      </c>
+      <c r="AB57">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AC57">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="AD57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AE57">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AF57">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AG57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AH57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AI57">
+        <v>0.2072</v>
+      </c>
+      <c r="AJ57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AK57">
+        <v>0.2</v>
+      </c>
+      <c r="AL57">
+        <v>0.3276</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="AO57">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="AP57">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AQ57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AR57">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="AS57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AT57">
+        <v>0.216</v>
+      </c>
+      <c r="AU57">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AV57">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="AW57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AX57">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AY57">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AZ57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BA57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BB57">
+        <v>0.2072</v>
+      </c>
+      <c r="BC57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BD57">
+        <v>0.2</v>
+      </c>
+      <c r="BE57">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="BF57">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="BG57">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="BH57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BI57">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="BJ57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BK57">
+        <v>0.216</v>
+      </c>
+      <c r="BL57">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="BM57">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="BN57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BO57">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="BP57">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="BQ57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BR57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BS57">
+        <v>0.2072</v>
+      </c>
+      <c r="BT57">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BU57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="D58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G58">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="H58">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="I58">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="J58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="L58">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="M58">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="N58">
+        <v>0.4254</v>
+      </c>
+      <c r="O58">
+        <v>0.2326</v>
+      </c>
+      <c r="P58">
+        <v>0.2351</v>
+      </c>
+      <c r="Q58">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="R58">
+        <v>0.3226</v>
+      </c>
+      <c r="S58">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="T58">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="W58">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="X58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="Y58">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="Z58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AA58">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AB58">
+        <v>0.75</v>
+      </c>
+      <c r="AC58">
+        <v>0.1633</v>
+      </c>
+      <c r="AD58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AE58">
+        <v>0.1628</v>
+      </c>
+      <c r="AF58">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="AG58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AH58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AI58">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="AJ58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AK58">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AL58">
+        <v>0.2</v>
+      </c>
+      <c r="AM58">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="AQ58">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="AR58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AS58">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="AT58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AU58">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AV58">
+        <v>0.75</v>
+      </c>
+      <c r="AW58">
+        <v>0.1633</v>
+      </c>
+      <c r="AX58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AY58">
+        <v>0.1628</v>
+      </c>
+      <c r="AZ58">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="BA58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BB58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BC58">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="BD58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BE58">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="BF58">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="BG58">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="BH58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BI58">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="BJ58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BK58">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="BL58">
+        <v>0.75</v>
+      </c>
+      <c r="BM58">
+        <v>0.1633</v>
+      </c>
+      <c r="BN58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BO58">
+        <v>0.1628</v>
+      </c>
+      <c r="BP58">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="BQ58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BR58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BS58">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="BT58">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BU58">
+        <v>0.29170000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="C59">
+        <v>0.4355</v>
+      </c>
+      <c r="D59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="G59">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="H59">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="J59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.4128</v>
+      </c>
+      <c r="M59">
+        <v>0.3453</v>
+      </c>
+      <c r="N59">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="O59">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="P59">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="Q59">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="R59">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="S59">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="T59">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="U59">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="V59">
+        <v>0.3795</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="Z59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="AB59">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="AC59">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="AD59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AE59">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AF59">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="AG59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AH59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AI59">
+        <v>0.4118</v>
+      </c>
+      <c r="AJ59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AK59">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="AL59">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AM59">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="AN59">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="AO59">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AP59">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="AQ59">
+        <v>0.3795</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AU59">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="AV59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AW59">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="AX59">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="AY59">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="AZ59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BA59">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="BB59">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="BC59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BD59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BE59">
+        <v>0.4118</v>
+      </c>
+      <c r="BF59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BG59">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="BH59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BI59">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="BJ59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BK59">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="BL59">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="BM59">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="BN59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BO59">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="BP59">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="BQ59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BR59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BS59">
+        <v>0.4118</v>
+      </c>
+      <c r="BT59">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BU59">
+        <v>0.41449999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>0.2414</v>
+      </c>
+      <c r="C60">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F60">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H60">
+        <v>0.2772</v>
+      </c>
+      <c r="I60">
+        <v>0.25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M60">
+        <v>0.2056</v>
+      </c>
+      <c r="N60">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O60">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P60">
+        <v>0.2437</v>
+      </c>
+      <c r="Q60">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R60">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S60">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T60">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U60">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V60">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W60">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X60" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y60">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA60">
+        <v>0.2326</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE60">
+        <v>0.1216</v>
+      </c>
+      <c r="AF60">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI60">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK60">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL60">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="AM60">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AN60">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AO60">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AP60">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AQ60">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AR60">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AS60">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV60">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX60">
+        <v>0.2326</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB60">
+        <v>0.1216</v>
+      </c>
+      <c r="BC60">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF60">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH60">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BI60">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK60">
+        <v>0.2326</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO60">
+        <v>0.1216</v>
+      </c>
+      <c r="BP60">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS60">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU60">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="C61">
+        <v>0.2878</v>
+      </c>
+      <c r="D61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.2465</v>
+      </c>
+      <c r="G61">
+        <v>0.2384</v>
+      </c>
+      <c r="H61">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="I61">
+        <v>0.3609</v>
+      </c>
+      <c r="J61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="L61">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="M61">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="N61">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="O61">
+        <v>0.3468</v>
+      </c>
+      <c r="P61">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="Q61">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="R61">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="S61">
+        <v>0.371</v>
+      </c>
+      <c r="T61">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>0.3795</v>
+      </c>
+      <c r="X61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="Z61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AB61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AC61">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AD61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AE61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AF61">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="AG61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AH61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AI61">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="AJ61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AK61">
+        <v>0.3357</v>
+      </c>
+      <c r="AL61">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM61">
+        <v>0.371</v>
+      </c>
+      <c r="AN61">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="AO61">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>0.3795</v>
+      </c>
+      <c r="AS61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AT61">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="AU61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AV61">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AW61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AX61">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AY61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AZ61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="BA61">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="BB61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BC61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BD61">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="BE61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BF61">
+        <v>0.3357</v>
+      </c>
+      <c r="BG61">
+        <v>0.3795</v>
+      </c>
+      <c r="BH61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BI61">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="BJ61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BK61">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="BL61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="BM61">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="BN61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BO61">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="BP61">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="BQ61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BR61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BS61">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="BT61">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BU61">
+        <v>0.3357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="C62">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.2336</v>
+      </c>
+      <c r="G62">
+        <v>0.2409</v>
+      </c>
+      <c r="H62">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="J62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="K62">
+        <v>0.2349</v>
+      </c>
+      <c r="L62">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="M62">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="N62">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="O62">
+        <v>0.2273</v>
+      </c>
+      <c r="P62">
+        <v>0.2432</v>
+      </c>
+      <c r="Q62">
+        <v>0.2903</v>
+      </c>
+      <c r="R62">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="S62">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="T62">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="U62">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="V62">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="W62">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="X62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="AB62">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="AC62">
+        <v>0.23</v>
+      </c>
+      <c r="AD62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AE62">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="AF62">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="AG62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AH62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AI62">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="AJ62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AK62">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="AL62">
+        <v>0.3357</v>
+      </c>
+      <c r="AM62">
+        <v>0.2432</v>
+      </c>
+      <c r="AN62">
+        <v>0.2903</v>
+      </c>
+      <c r="AO62">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="AP62">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="AQ62">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="AR62">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="AS62">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="AT62">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="AU62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AV62">
+        <v>1</v>
+      </c>
+      <c r="AW62">
+        <v>1</v>
+      </c>
+      <c r="AX62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AY62">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="AZ62">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="BA62">
+        <v>0.23</v>
+      </c>
+      <c r="BB62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BC62">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="BD62">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="BE62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BF62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BG62">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="BH62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BI62">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="BJ62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BK62">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="BL62">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="BM62">
+        <v>0.23</v>
+      </c>
+      <c r="BN62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BO62">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="BP62">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="BQ62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BR62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BS62">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="BT62">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BU62">
+        <v>0.27889999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>0.2414</v>
+      </c>
+      <c r="C63">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F63">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G63">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H63">
+        <v>0.2772</v>
+      </c>
+      <c r="I63">
+        <v>0.25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M63">
+        <v>0.2056</v>
+      </c>
+      <c r="N63">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O63">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P63">
+        <v>0.2437</v>
+      </c>
+      <c r="Q63">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R63">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S63">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T63">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U63">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V63">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W63">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y63">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA63">
+        <v>0.2326</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE63">
+        <v>0.1216</v>
+      </c>
+      <c r="AF63">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI63">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK63">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL63">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="AM63">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AN63">
+        <v>0.2437</v>
+      </c>
+      <c r="AO63">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AP63">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AQ63">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AR63">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AS63">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AT63">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AU63">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW63">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ63">
+        <v>0.2326</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD63">
+        <v>0.1216</v>
+      </c>
+      <c r="BE63">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH63">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ63">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BK63">
+        <v>0.2326</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO63">
+        <v>0.1216</v>
+      </c>
+      <c r="BP63">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS63">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU63">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C64">
+        <v>0.3352</v>
+      </c>
+      <c r="D64">
+        <v>0.2326</v>
+      </c>
+      <c r="E64">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="F64">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="G64">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="H64">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="J64">
+        <v>0.2326</v>
+      </c>
+      <c r="K64">
+        <v>0.2742</v>
+      </c>
+      <c r="L64">
+        <v>0.3614</v>
+      </c>
+      <c r="M64">
+        <v>0.2535</v>
+      </c>
+      <c r="N64">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="O64">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="P64">
+        <v>0.2424</v>
+      </c>
+      <c r="Q64">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="R64">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="S64">
+        <v>0.3271</v>
+      </c>
+      <c r="T64">
+        <v>0.216</v>
+      </c>
+      <c r="U64">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="V64">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="W64">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="X64">
+        <v>0.2326</v>
+      </c>
+      <c r="Y64">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="Z64">
+        <v>0.2326</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>0.3206</v>
+      </c>
+      <c r="AC64">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="AD64">
+        <v>0.2326</v>
+      </c>
+      <c r="AE64">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="AF64">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="AG64">
+        <v>0.2326</v>
+      </c>
+      <c r="AH64">
+        <v>0.2326</v>
+      </c>
+      <c r="AI64">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AJ64">
+        <v>0.2326</v>
+      </c>
+      <c r="AK64">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="AL64">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM64">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="AN64">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="AO64">
+        <v>0.2424</v>
+      </c>
+      <c r="AP64">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AQ64">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="AR64">
+        <v>0.3271</v>
+      </c>
+      <c r="AS64">
+        <v>0.216</v>
+      </c>
+      <c r="AT64">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AU64">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AV64">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="AW64">
+        <v>0.2326</v>
+      </c>
+      <c r="AX64">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="AY64">
+        <v>0.2326</v>
+      </c>
+      <c r="AZ64">
+        <v>1</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>0.3206</v>
+      </c>
+      <c r="BC64">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="BD64">
+        <v>0.2326</v>
+      </c>
+      <c r="BE64">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="BF64">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="BG64">
+        <v>0.2326</v>
+      </c>
+      <c r="BH64">
+        <v>0.2326</v>
+      </c>
+      <c r="BI64">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="BJ64">
+        <v>0.2326</v>
+      </c>
+      <c r="BK64">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="BL64">
+        <v>0.3206</v>
+      </c>
+      <c r="BM64">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="BN64">
+        <v>0.2326</v>
+      </c>
+      <c r="BO64">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="BP64">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="BQ64">
+        <v>0.2326</v>
+      </c>
+      <c r="BR64">
+        <v>0.2326</v>
+      </c>
+      <c r="BS64">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="BT64">
+        <v>0.2326</v>
+      </c>
+      <c r="BU64">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="F65">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="H65">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I65">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M65">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="O65">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="P65">
+        <v>0.2311</v>
+      </c>
+      <c r="Q65">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="R65">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="S65">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="T65">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="U65">
+        <v>0.75</v>
+      </c>
+      <c r="V65">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="W65">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0.3206</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>0.1875</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0.1628</v>
+      </c>
+      <c r="AF65">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="AL65">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="AM65">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="AN65">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AO65">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="AP65">
+        <v>0.2311</v>
+      </c>
+      <c r="AQ65">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="AR65">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="AS65">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="AT65">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AU65">
+        <v>0.75</v>
+      </c>
+      <c r="AV65">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AW65">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0.3206</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>1</v>
+      </c>
+      <c r="BD65">
+        <v>0.1875</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0.1628</v>
+      </c>
+      <c r="BG65">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="BM65">
+        <v>0.1875</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0.1628</v>
+      </c>
+      <c r="BP65">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="BQ65">
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <v>0</v>
+      </c>
+      <c r="BS65">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="BT65">
+        <v>0</v>
+      </c>
+      <c r="BU65">
+        <v>0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>0.2581</v>
+      </c>
+      <c r="C66">
+        <v>0.2621</v>
+      </c>
+      <c r="D66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F66">
+        <v>0.1651</v>
+      </c>
+      <c r="G66">
+        <v>0.2346</v>
+      </c>
+      <c r="H66">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="J66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.25</v>
+      </c>
+      <c r="L66">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="M66">
+        <v>0.1898</v>
+      </c>
+      <c r="N66">
+        <v>0.3624</v>
+      </c>
+      <c r="O66">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="P66">
+        <v>0.251</v>
+      </c>
+      <c r="Q66">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="R66">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="S66">
+        <v>0.3246</v>
+      </c>
+      <c r="T66">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="U66">
+        <v>0.1633</v>
+      </c>
+      <c r="V66">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="W66">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="X66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="Y66">
+        <v>0.23</v>
+      </c>
+      <c r="Z66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AA66">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="AB66">
+        <v>0.1875</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AE66">
+        <v>0.2258</v>
+      </c>
+      <c r="AF66">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AG66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AH66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AI66">
+        <v>0.2016</v>
+      </c>
+      <c r="AJ66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AK66">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="AL66">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="AM66">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AN66">
+        <v>0.1898</v>
+      </c>
+      <c r="AO66">
+        <v>0.3624</v>
+      </c>
+      <c r="AP66">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AQ66">
+        <v>0.251</v>
+      </c>
+      <c r="AR66">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="AS66">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="AT66">
+        <v>0.3246</v>
+      </c>
+      <c r="AU66">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="AV66">
+        <v>0.1633</v>
+      </c>
+      <c r="AW66">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AX66">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="AY66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AZ66">
+        <v>0.23</v>
+      </c>
+      <c r="BA66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BB66">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="BC66">
+        <v>0.1875</v>
+      </c>
+      <c r="BD66">
+        <v>1</v>
+      </c>
+      <c r="BE66">
+        <v>1</v>
+      </c>
+      <c r="BF66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BG66">
+        <v>0.2258</v>
+      </c>
+      <c r="BH66">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="BI66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BJ66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BK66">
+        <v>0.2016</v>
+      </c>
+      <c r="BL66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BM66">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="BN66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BO66">
+        <v>0.2258</v>
+      </c>
+      <c r="BP66">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="BQ66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BR66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BS66">
+        <v>0.2016</v>
+      </c>
+      <c r="BT66">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BU66">
+        <v>0.26319999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>0.2414</v>
+      </c>
+      <c r="C67">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F67">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.2772</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M67">
+        <v>0.2056</v>
+      </c>
+      <c r="N67">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O67">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P67">
+        <v>0.2437</v>
+      </c>
+      <c r="Q67">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R67">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S67">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T67">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U67">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V67">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W67">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y67">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA67">
+        <v>0.2326</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE67">
+        <v>0.1216</v>
+      </c>
+      <c r="AF67">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI67">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK67">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL67">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="AM67">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AN67">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AO67">
+        <v>0.2056</v>
+      </c>
+      <c r="AP67">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AQ67">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AR67">
+        <v>0.2437</v>
+      </c>
+      <c r="AS67">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AT67">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AU67">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AV67">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AW67">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AX67">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AY67">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA67">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC67">
+        <v>0.2326</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BF67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH67">
+        <v>0.1216</v>
+      </c>
+      <c r="BI67">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BJ67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL67">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN67">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BO67">
+        <v>0.1216</v>
+      </c>
+      <c r="BP67">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BQ67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS67">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU67">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="C68">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="D68">
+        <v>0.1216</v>
+      </c>
+      <c r="E68">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="F68">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="I68">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="J68">
+        <v>0.1216</v>
+      </c>
+      <c r="K68">
+        <v>0.2394</v>
+      </c>
+      <c r="L68">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="M68">
+        <v>0.1976</v>
+      </c>
+      <c r="N68">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.25</v>
+      </c>
+      <c r="P68">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R68">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="S68">
+        <v>0.3256</v>
+      </c>
+      <c r="T68">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U68">
+        <v>0.1628</v>
+      </c>
+      <c r="V68">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="W68">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="X68">
+        <v>0.1216</v>
+      </c>
+      <c r="Y68">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="Z68">
+        <v>0.1216</v>
+      </c>
+      <c r="AA68">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="AB68">
+        <v>0.1628</v>
+      </c>
+      <c r="AC68">
+        <v>0.2258</v>
+      </c>
+      <c r="AD68">
+        <v>0.1216</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="AG68">
+        <v>0.1216</v>
+      </c>
+      <c r="AH68">
+        <v>0.1216</v>
+      </c>
+      <c r="AI68">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AJ68">
+        <v>0.1216</v>
+      </c>
+      <c r="AK68">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="AL68">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM68">
+        <v>0.1216</v>
+      </c>
+      <c r="AN68">
+        <v>0.2394</v>
+      </c>
+      <c r="AO68">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="AP68">
+        <v>0.1976</v>
+      </c>
+      <c r="AQ68">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="AR68">
+        <v>0.25</v>
+      </c>
+      <c r="AS68">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="AT68">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AU68">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="AV68">
+        <v>0.3256</v>
+      </c>
+      <c r="AW68">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AX68">
+        <v>0.1628</v>
+      </c>
+      <c r="AY68">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AZ68">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="BA68">
+        <v>0.1216</v>
+      </c>
+      <c r="BB68">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="BC68">
+        <v>0.1216</v>
+      </c>
+      <c r="BD68">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="BE68">
+        <v>0.1628</v>
+      </c>
+      <c r="BF68">
+        <v>0.2258</v>
+      </c>
+      <c r="BG68">
+        <v>0.1216</v>
+      </c>
+      <c r="BH68">
+        <v>1</v>
+      </c>
+      <c r="BI68">
+        <v>1</v>
+      </c>
+      <c r="BJ68">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="BK68">
+        <v>0.1216</v>
+      </c>
+      <c r="BL68">
+        <v>0.1216</v>
+      </c>
+      <c r="BM68">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BN68">
+        <v>0.1216</v>
+      </c>
+      <c r="BO68">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="BP68">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="BQ68">
+        <v>0.1216</v>
+      </c>
+      <c r="BR68">
+        <v>0.1216</v>
+      </c>
+      <c r="BS68">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BT68">
+        <v>0.1216</v>
+      </c>
+      <c r="BU68">
+        <v>0.25869999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G69">
+        <v>0.2341</v>
+      </c>
+      <c r="H69">
+        <v>0.3039</v>
+      </c>
+      <c r="I69">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="J69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="K69">
+        <v>0.24</v>
+      </c>
+      <c r="L69">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="N69">
+        <v>0.3211</v>
+      </c>
+      <c r="O69">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="P69">
+        <v>0.2555</v>
+      </c>
+      <c r="Q69">
+        <v>0.3</v>
+      </c>
+      <c r="R69">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="S69">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T69">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="U69">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="V69">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="W69">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="X69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="AB69">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="AC69">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AD69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AE69">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AH69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AI69">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="AJ69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AK69">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AL69">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="AM69">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AN69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AO69">
+        <v>0.24</v>
+      </c>
+      <c r="AP69">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="AQ69">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="AR69">
+        <v>0.3211</v>
+      </c>
+      <c r="AS69">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="AT69">
+        <v>0.2555</v>
+      </c>
+      <c r="AU69">
+        <v>0.3</v>
+      </c>
+      <c r="AV69">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="AW69">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AX69">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AY69">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="AZ69">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="BA69">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="BB69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BC69">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="BD69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BE69">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="BF69">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="BG69">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="BH69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BI69">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="BJ69">
+        <v>1</v>
+      </c>
+      <c r="BK69">
+        <v>1</v>
+      </c>
+      <c r="BL69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BM69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BN69">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="BO69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BP69">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="BQ69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BR69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BS69">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="BT69">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BU69">
+        <v>0.32740000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70">
+        <v>0.2414</v>
+      </c>
+      <c r="C70">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F70">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.2772</v>
+      </c>
+      <c r="I70">
+        <v>0.25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M70">
+        <v>0.2056</v>
+      </c>
+      <c r="N70">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O70">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P70">
+        <v>0.2437</v>
+      </c>
+      <c r="Q70">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R70">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S70">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T70">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U70">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V70">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W70">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y70">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA70">
+        <v>0.2326</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE70">
+        <v>0.1216</v>
+      </c>
+      <c r="AF70">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI70">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK70">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL70">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AM70">
+        <v>0.2772</v>
+      </c>
+      <c r="AN70">
+        <v>0.25</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP70">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AQ70">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AR70">
+        <v>0.2056</v>
+      </c>
+      <c r="AS70">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AT70">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AU70">
+        <v>0.2437</v>
+      </c>
+      <c r="AV70">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AW70">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AX70">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AY70">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="AZ70">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BA70">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BB70">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD70">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF70">
+        <v>0.2326</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ70">
+        <v>0.1216</v>
+      </c>
+      <c r="BK70">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO70">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ70">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS70">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU70">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>0.2414</v>
+      </c>
+      <c r="C71">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F71">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H71">
+        <v>0.2772</v>
+      </c>
+      <c r="I71">
+        <v>0.25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M71">
+        <v>0.2056</v>
+      </c>
+      <c r="N71">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O71">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P71">
+        <v>0.2437</v>
+      </c>
+      <c r="Q71">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R71">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S71">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T71">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U71">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V71">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W71">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y71">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA71">
+        <v>0.2326</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE71">
+        <v>0.1216</v>
+      </c>
+      <c r="AF71">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI71">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK71">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL71">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM71">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AN71">
+        <v>0.2772</v>
+      </c>
+      <c r="AO71">
+        <v>0.25</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ71">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AR71">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AS71">
+        <v>0.2056</v>
+      </c>
+      <c r="AT71">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AU71">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AV71">
+        <v>0.2437</v>
+      </c>
+      <c r="AW71">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AX71">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="AY71">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AZ71">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BA71">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BB71">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BC71">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE71">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG71">
+        <v>0.2326</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK71">
+        <v>0.1216</v>
+      </c>
+      <c r="BL71">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP71">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR71">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BS71">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU71">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="C72">
+        <v>0.2767</v>
+      </c>
+      <c r="D72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F72">
+        <v>0.2036</v>
+      </c>
+      <c r="G72">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H72">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="I72">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="J72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.2727</v>
+      </c>
+      <c r="L72">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="M72">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="N72">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="P72">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="Q72">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="R72">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="S72">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="T72">
+        <v>0.2072</v>
+      </c>
+      <c r="U72">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="V72">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="W72">
+        <v>0.4118</v>
+      </c>
+      <c r="X72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AB72">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="AC72">
+        <v>0.2016</v>
+      </c>
+      <c r="AD72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AE72">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AF72">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="AG72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AH72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+      <c r="AJ72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AK72">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AL72">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AM72">
+        <v>0.2036</v>
+      </c>
+      <c r="AN72">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AO72">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="AP72">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="AQ72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AR72">
+        <v>0.2727</v>
+      </c>
+      <c r="AS72">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="AT72">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="AU72">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AV72">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="AW72">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="AX72">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="AY72">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="AZ72">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="BA72">
+        <v>0.2072</v>
+      </c>
+      <c r="BB72">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="BC72">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="BD72">
+        <v>0.4118</v>
+      </c>
+      <c r="BE72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BF72">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="BG72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BH72">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="BI72">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="BJ72">
+        <v>0.2016</v>
+      </c>
+      <c r="BK72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BL72">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BM72">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="BN72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BO72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BP72">
+        <v>1</v>
+      </c>
+      <c r="BQ72">
+        <v>1</v>
+      </c>
+      <c r="BR72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BS72">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="BT72">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BU72">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>0.2414</v>
+      </c>
+      <c r="C73">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F73">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G73">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.2772</v>
+      </c>
+      <c r="I73">
+        <v>0.25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>35</v>
+      </c>
+      <c r="K73">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M73">
+        <v>0.2056</v>
+      </c>
+      <c r="N73">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="O73">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="P73">
+        <v>0.2437</v>
+      </c>
+      <c r="Q73">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R73">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="S73">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T73">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="U73">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="V73">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W73">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="X73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y73">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA73">
+        <v>0.2326</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE73">
+        <v>0.1216</v>
+      </c>
+      <c r="AF73">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI73">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK73">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AL73">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AM73">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AN73">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="AO73">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AP73">
+        <v>0.2772</v>
+      </c>
+      <c r="AQ73">
+        <v>0.25</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS73">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AT73">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AU73">
+        <v>0.2056</v>
+      </c>
+      <c r="AV73">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="AW73">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AX73">
+        <v>0.2437</v>
+      </c>
+      <c r="AY73">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AZ73">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BA73">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="BB73">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="BC73">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="BD73">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="BE73">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG73">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI73">
+        <v>0.2326</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM73">
+        <v>0.1216</v>
+      </c>
+      <c r="BN73">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="BO73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ73">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="BR73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS73" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT73">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BU73">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>0.2843</v>
+      </c>
+      <c r="C74">
+        <v>0.3261</v>
+      </c>
+      <c r="D74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="E74">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="F74">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G74">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="H74">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="I74">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="J74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="L74">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="N74">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="O74">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="P74">
+        <v>0.2475</v>
+      </c>
+      <c r="Q74">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="R74">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="S74">
+        <v>0.3276</v>
+      </c>
+      <c r="T74">
+        <v>0.2</v>
+      </c>
+      <c r="U74">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="V74">
+        <v>0.3357</v>
+      </c>
+      <c r="W74">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="X74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="Z74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="AB74">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="AC74">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="AD74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AE74">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="AF74">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AG74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AH74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AI74">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AJ74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AN74">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="AO74">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP74">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="AQ74">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AR74">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AS74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AT74">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="AU74">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AV74">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AW74">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AX74">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="AY74">
+        <v>0.2475</v>
+      </c>
+      <c r="AZ74">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="BA74">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="BB74">
+        <v>0.3276</v>
+      </c>
+      <c r="BC74">
+        <v>0.2</v>
+      </c>
+      <c r="BD74">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="BE74">
+        <v>0.3357</v>
+      </c>
+      <c r="BF74">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="BG74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BH74">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="BI74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BJ74">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="BK74">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="BL74">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="BM74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BN74">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="BO74">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="BP74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BQ74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BR74">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="BS74">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="BT74">
+        <v>1</v>
+      </c>
+      <c r="BU74">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:AK74">
+    <sortCondition ref="A39"/>
+  </sortState>
   <conditionalFormatting sqref="A1:AJ36">
     <cfRule type="colorScale" priority="3">
       <colorScale>

--- a/sample_results/Correlation_Matrix.xlsx
+++ b/sample_results/Correlation_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\LopezMOSS\sample_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707062BA-75E0-450B-B9FF-1D03E37854CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797074E2-133C-4625-B995-0D2D8F1243D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB5E925E-AFF4-4D86-8451-B22628164210}"/>
   </bookViews>
@@ -492,14 +492,14 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
   </cols>
